--- a/biology/Médecine/Hans-Joachim_Lang/Hans-Joachim_Lang.xlsx
+++ b/biology/Médecine/Hans-Joachim_Lang/Hans-Joachim_Lang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans-Joachim Lang, né le 6 août 1951 à Spire en Allemagne, est un journaliste et historien allemand, professeur honoraire d’Études des civilisations à l’université de Tübingen.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir fait des études de germanistique et de politologie à l’Université de Tübingen, Hans-Joachim Lang devient rédacteur de la rubrique scientifique du quotidien Schwäbisches Tagblatt de Tübingen. À  cette occasion, il découvre l’histoire de l’anatomiste August Hirt et de sa collection de squelettes juifs de la Reichsuniversität de Strasbourg[1].
-Il retrouve une liste, dressée secrètement par l’assistant d’anatomie Henri Henrypierre, des matricules des 86 Juifs déportés et gazés au camp de concentration de Natzwiller-Struthof pour ces expériences, ce qui lui permet après une longue enquête de redonner un nom à ces numéros[2],[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir fait des études de germanistique et de politologie à l’Université de Tübingen, Hans-Joachim Lang devient rédacteur de la rubrique scientifique du quotidien Schwäbisches Tagblatt de Tübingen. À  cette occasion, il découvre l’histoire de l’anatomiste August Hirt et de sa collection de squelettes juifs de la Reichsuniversität de Strasbourg.
+Il retrouve une liste, dressée secrètement par l’assistant d’anatomie Henri Henrypierre, des matricules des 86 Juifs déportés et gazés au camp de concentration de Natzwiller-Struthof pour ces expériences, ce qui lui permet après une longue enquête de redonner un nom à ces numéros,
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1989 : Wächterpreis der deutschen Tagespresse (de)[4]
-2004 : Prix de la Fondation Auschwitz pour Die Namen der Nummern[4]
-2008 : Médaille Leonhart Fuchs de la faculté de médecine de l'université Eberhard Karl de Tübingen[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1989 : Wächterpreis der deutschen Tagespresse (de)
+2004 : Prix de la Fondation Auschwitz pour Die Namen der Nummern
+2008 : Médaille Leonhart Fuchs de la faculté de médecine de l'université Eberhard Karl de Tübingen</t>
         </is>
       </c>
     </row>
@@ -577,20 +593,93 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Livres
-(de) Parteipressemitteilungen im Kommunikationsfluss politischer Nachrichten : e. Fallstudie über d. Einfluss politischer Werbung auf Nachrichtentexte, Lang, Frankfurt am Main ; Bern ; Cirencester/U.K., 1980, 193 p.  (ISBN 3-8204-6781-5) (texte remanié d'une thèse soutenue à Tübingen)
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(de) Parteipressemitteilungen im Kommunikationsfluss politischer Nachrichten : e. Fallstudie über d. Einfluss politischer Werbung auf Nachrichtentexte, Lang, Frankfurt am Main ; Bern ; Cirencester/U.K., 1980, 193 p.  (ISBN 3-8204-6781-5) (texte remanié d'une thèse soutenue à Tübingen)
 (de) Die Namen der Nummern: Wie es gelang, die 86 Opfer eines NS-Verbrechens zu identifizieren(Les noms des numéros : comment on a réussi à identifier les 86 victimes d'un crime nazi). Hoffmann und Campe, 2004.  (ISBN 978-3455094640)
 (de) Als Christ nenne ich Sie einen Lügner. Theodor Rollers Aufbegehren gegen Hitler. Hoffmann und Campe, 2009.  (ISBN 3455501044).
 (de) Die Frauen von Block 10: Medizinische Versuche in Auschwitz. Hoffmann und Campe, 2011.  (ISBN 978-3455502220)
-Des noms derrière des numéros. L'identification des 86 victimes d'un crime nazi. Une enquête.  Préface de Johann Chapoutot. Postface de Georges Yoram Federmann. Presses universitaires de Strasbourg, 2018.  (ISBN 979-10-344-0012-6)
-Sélection d'articles
-(de) « Richard Schuh, Ihr Leben ist verwirkt! », in Zeit Online, 11 février 1999, no 7
+Des noms derrière des numéros. L'identification des 86 victimes d'un crime nazi. Une enquête.  Préface de Johann Chapoutot. Postface de Georges Yoram Federmann. Presses universitaires de Strasbourg, 2018.  (ISBN 979-10-344-0012-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hans-Joachim_Lang</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans-Joachim_Lang</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sélection d'articles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(de) « Richard Schuh, Ihr Leben ist verwirkt! », in Zeit Online, 11 février 1999, no 7
 (de) « Skelette für Straßburg », in Zeit Online, 19 août 2004, no 35
 (de) « NS-Verbrechen Die Spur der Skelette », Spiegel Online, 6 janvier 2010.
 (de) « Ein Freund geblieben », in Zeit Online, 15 septembre 2013, no 37
-(de) « Theodor Eschenburg und die deutsche Vergangenheit. Die Enteignung Wilhelm Fischbeins – und was Theodor Eschenburg damit zu tun hat », in Indes, 2014, no 3, 1E, p. 145-155
-Documentaires
-Au nom de la science et de la race - Strasbourg 1941-1944, documentaire réalisé par Sonia Rolley, Axel et Tancrède Ramonet, durée 55 min. Production France 3 - Temps noirs, avril 2013.
+(de) « Theodor Eschenburg und die deutsche Vergangenheit. Die Enteignung Wilhelm Fischbeins – und was Theodor Eschenburg damit zu tun hat », in Indes, 2014, no 3, 1E, p. 145-155</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hans-Joachim_Lang</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans-Joachim_Lang</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Documentaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Au nom de la science et de la race - Strasbourg 1941-1944, documentaire réalisé par Sonia Rolley, Axel et Tancrède Ramonet, durée 55 min. Production France 3 - Temps noirs, avril 2013.
 Le nom des 86, documentaire réalisé par Emmanuel Heyd et Raphael Toledano, durée 63 min. Production Dora Films sas - Alsace 20 - Télébocal - Cinaps TV, 2014.</t>
         </is>
       </c>
